--- a/file/导入学生模板.xlsx
+++ b/file/导入学生模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13350" windowHeight="15375"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+  <si>
+    <t>导入说明：前两条为填入样例模板，不可删，后续数据从第五行开始写入。</t>
+  </si>
   <si>
     <t>学号</t>
   </si>
@@ -46,6 +49,9 @@
     <t>本科类型</t>
   </si>
   <si>
+    <t>辅导员</t>
+  </si>
+  <si>
     <t>张三</t>
   </si>
   <si>
@@ -58,9 +64,21 @@
     <t>计算机</t>
   </si>
   <si>
+    <t>2022级计算机类1班</t>
+  </si>
+  <si>
     <t>党员</t>
   </si>
   <si>
+    <t>123@qq.com</t>
+  </si>
+  <si>
+    <t>本科</t>
+  </si>
+  <si>
+    <t>王刚</t>
+  </si>
+  <si>
     <t>李四</t>
   </si>
   <si>
@@ -68,6 +86,18 @@
   </si>
   <si>
     <t>电子信息</t>
+  </si>
+  <si>
+    <t>2020级车辆工程（本科）2班</t>
+  </si>
+  <si>
+    <t>124@qq.com</t>
+  </si>
+  <si>
+    <t>专升本</t>
+  </si>
+  <si>
+    <t>赵兆</t>
   </si>
 </sst>
 </file>
@@ -91,15 +121,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,12 +583,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,8 +713,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,111 +1248,145 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="8" max="8" width="12.625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" ht="90" customHeight="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="3" spans="1:11">
+      <c r="A3">
         <v>2011</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="H2">
-        <v>1313</v>
-      </c>
-      <c r="I2">
-        <v>123123</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>13555555555</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
+    <row r="4" spans="1:11">
+      <c r="A4">
         <v>2012</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>123123</v>
-      </c>
-      <c r="I3">
-        <v>123123</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
+      <c r="H4">
+        <v>13666666666</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" display="123@qq.com"/>
+    <hyperlink ref="I4" r:id="rId2" display="124@qq.com" tooltip="mailto:124@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
